--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N2">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P2">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q2">
-        <v>5.979331173397224</v>
+        <v>32.27522354252778</v>
       </c>
       <c r="R2">
-        <v>53.813980560575</v>
+        <v>290.47701188275</v>
       </c>
       <c r="S2">
-        <v>0.06004267179303326</v>
+        <v>0.1521368882740457</v>
       </c>
       <c r="T2">
-        <v>0.06004267179303326</v>
+        <v>0.1521368882740457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H3">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P3">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q3">
-        <v>19.37858213971389</v>
+        <v>65.47858056581724</v>
       </c>
       <c r="R3">
-        <v>174.407239257425</v>
+        <v>589.3072250923551</v>
       </c>
       <c r="S3">
-        <v>0.1945939794079173</v>
+        <v>0.3086487528973638</v>
       </c>
       <c r="T3">
-        <v>0.1945939794079173</v>
+        <v>0.3086487528973638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H4">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P4">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q4">
-        <v>14.64730045015</v>
+        <v>49.49198221429</v>
       </c>
       <c r="R4">
-        <v>131.82570405135</v>
+        <v>445.42783992861</v>
       </c>
       <c r="S4">
-        <v>0.1470838506980754</v>
+        <v>0.23329214617755</v>
       </c>
       <c r="T4">
-        <v>0.1470838506980754</v>
+        <v>0.23329214617755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N5">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P5">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q5">
-        <v>4.9676688742</v>
+        <v>7.935824090000001</v>
       </c>
       <c r="R5">
-        <v>44.7090198678</v>
+        <v>71.42241681</v>
       </c>
       <c r="S5">
-        <v>0.04988385876954046</v>
+        <v>0.03740738096986246</v>
       </c>
       <c r="T5">
-        <v>0.04988385876954046</v>
+        <v>0.03740738096986246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P6">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q6">
         <v>16.0998574138</v>
@@ -818,10 +818,10 @@
         <v>144.8987167242</v>
       </c>
       <c r="S6">
-        <v>0.1616699972920546</v>
+        <v>0.07589048005705996</v>
       </c>
       <c r="T6">
-        <v>0.1616699972920546</v>
+        <v>0.07589048005705996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P7">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q7">
         <v>12.1690765116</v>
@@ -880,10 +880,10 @@
         <v>109.5216886044</v>
       </c>
       <c r="S7">
-        <v>0.1221982602771899</v>
+        <v>0.0573618159825952</v>
       </c>
       <c r="T7">
-        <v>0.1221982602771899</v>
+        <v>0.0573618159825952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.534538333333334</v>
+        <v>2.451416666666667</v>
       </c>
       <c r="N8">
-        <v>4.603615</v>
+        <v>7.35425</v>
       </c>
       <c r="O8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="P8">
-        <v>0.149463797613509</v>
+        <v>0.2191928499183569</v>
       </c>
       <c r="Q8">
-        <v>3.937306690872779</v>
+        <v>6.289826089138889</v>
       </c>
       <c r="R8">
-        <v>35.43576021785501</v>
+        <v>56.60843480225</v>
       </c>
       <c r="S8">
-        <v>0.03953726705093526</v>
+        <v>0.0296485806744487</v>
       </c>
       <c r="T8">
-        <v>0.03953726705093526</v>
+        <v>0.02964858067444871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.919985</v>
       </c>
       <c r="O9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="P9">
-        <v>0.4844014146353658</v>
+        <v>0.4446889938320204</v>
       </c>
       <c r="Q9">
         <v>12.76052770881611</v>
@@ -1004,10 +1004,10 @@
         <v>114.844749379345</v>
       </c>
       <c r="S9">
-        <v>0.1281374379353939</v>
+        <v>0.06014976087759655</v>
       </c>
       <c r="T9">
-        <v>0.1281374379353939</v>
+        <v>0.06014976087759657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>11.27727</v>
       </c>
       <c r="O10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="P10">
-        <v>0.3661347877511252</v>
+        <v>0.3361181562496228</v>
       </c>
       <c r="Q10">
-        <v>9.645044302310001</v>
+        <v>9.64504430231</v>
       </c>
       <c r="R10">
         <v>86.80539872079</v>
       </c>
       <c r="S10">
-        <v>0.09685267677585999</v>
+        <v>0.04546419408947752</v>
       </c>
       <c r="T10">
-        <v>0.09685267677585999</v>
+        <v>0.04546419408947753</v>
       </c>
     </row>
   </sheetData>
